--- a/日経社説ー春秋/注目したいエコカーの新展開.xlsx
+++ b/日経社説ー春秋/注目したいエコカーの新展開.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,117 +19,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>エコカー</t>
-  </si>
-  <si>
-    <t>ハイブリッド</t>
-  </si>
-  <si>
-    <t>代名詞</t>
-  </si>
-  <si>
-    <t>排ガス</t>
-  </si>
-  <si>
-    <t>新興</t>
-  </si>
-  <si>
-    <t>脚光</t>
-  </si>
-  <si>
-    <t>従来</t>
-  </si>
-  <si>
-    <t>機構</t>
-  </si>
-  <si>
-    <t>航続</t>
-  </si>
-  <si>
-    <t>要請</t>
-  </si>
-  <si>
-    <t>引っ張る</t>
-  </si>
-  <si>
-    <t>自力</t>
-  </si>
-  <si>
-    <t>エコロジーに関する技術がその車種を特徴づける要素の一つとなっている自動車。環境により優しい技術が搭載された車。</t>
-  </si>
-  <si>
-    <t>異なった要素が混じり合っていること。異なったものが組み合わされていること。混合。混成。</t>
-  </si>
-  <si>
-    <t>だいめいし</t>
-  </si>
-  <si>
-    <t>あるものの性質・状態を代表的に示す言葉として用いられる。</t>
-  </si>
-  <si>
-    <t>「排気ガス」の略。</t>
-  </si>
-  <si>
-    <t>しんこう</t>
-  </si>
-  <si>
-    <t>新しく勢いが盛んになること。新たに興ること。また、新しく興すこと。</t>
-  </si>
-  <si>
-    <t>きゃっこう</t>
-  </si>
-  <si>
-    <t>舞台前端の床に一列に取り付け、俳優を足元を照らす照明。</t>
-  </si>
-  <si>
-    <t>じゅうらい</t>
-  </si>
-  <si>
-    <t>以前から今まで。</t>
-  </si>
-  <si>
-    <t>きこう</t>
-  </si>
-  <si>
-    <t>機会の内部の構造。仕組み。</t>
-  </si>
-  <si>
-    <t>こうぞく</t>
-  </si>
-  <si>
-    <t>船舶や航空機が、燃料を補給せずに航行を続けること。</t>
-  </si>
-  <si>
-    <t>ようせい</t>
-  </si>
-  <si>
-    <t>必要なこととして、実現を願い求めること。乞い求めること。</t>
-  </si>
-  <si>
-    <t>ひっぱる</t>
-  </si>
-  <si>
-    <t>その状態を保ち続ける。</t>
-  </si>
-  <si>
-    <t>じりき</t>
-  </si>
-  <si>
-    <t>自分自身の力。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>自動車の環境技術が新たな進展を見せている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本車が今後も環境技術で世界をリードし、地球温暖化問題や排ガスによる大気汚染の解決に寄与することを期待したい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排ガスゼロの電気自動（EV)では、新興の米テスラの急成長が脚光を浴びた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>従来型ハイブリッド車から進化した、「電池を主、エンジンを従」として走るプラグインハイブリッド車（PHV)については、ドイツ勢が商品投入で先行した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だが、ここにきて日本メーカーの取り組みも活発化しており、今後の展開が注目される。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トヨタ自動車はプラグインタイプの「プリウスPHV」全面改良し、国内で発売した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各社が様々なエコカー開発に力を入れる背景には、米欧や中国における環境規制強化の流れである。従来型ハイブリッド車や既存エンジンの改良だけでは対応が難しくなりつつあるのが現状だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界市場の約三割を占める日本の自動車産業はこうした社会的な要請を前向きに受け止め、エコカーの開発競争に引っ張ることで、次の飛躍の機会としたい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自力だけでは対応し切れない中堅企業には、大手との連携も必要になろう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過去２０年間、動力源が「エンジンを主、電池を従」のハイブリッド車はエコカーの代名詞だったが、その進化形とも言える時代の技術方式が次々と名乗りを上げ始めた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近年エコカーの分野では海外企業に注目が集まることが多かった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハイブリッド車の生みの親の内山竹志会長は「プラグインが次のエコカーの大本命」と宣言。電池だけで６８キロメートル走るので、夜充電しておけば、ガソリンを一滴も使わず日々の通勤や買い物ができるという。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日産自動車もエンジンを使って発電し、その電気でモーターを駆動して走る新しい形のハイブリッド機関を開発し、コンパクト車の「ノート」に搭載した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航続距離が短いというEVの弱点を克服しつつ、EVの魅力である静かでスムーズな走りを実現した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,11 +117,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -220,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +217,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,151 +394,100 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="89.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="51.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="27">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="27">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="27">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="27">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="27">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="40.5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="12" spans="1:1" ht="40.5">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="13" spans="1:1" ht="27">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>